--- a/assignment_files/burndown.xlsx
+++ b/assignment_files/burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\School\2020-2021-Senior\Winter\Capstone\pocket-chef\assignment_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696F22A-F209-4BAB-8A9E-0421B67D4A78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA80F0C-4932-4D08-8DF6-146B9DE89F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A753B54A-E644-4AE6-B61F-AD9CD6AC82E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A753B54A-E644-4AE6-B61F-AD9CD6AC82E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,28 +42,7 @@
     <t>score</t>
   </si>
   <si>
-    <t xml:space="preserve">As a user, I can upload my own recipes to the database </t>
-  </si>
-  <si>
     <t>Est. time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I would like my recipes to be viewed in card view format </t>
-  </si>
-  <si>
-    <t>As a developer, I can query recipe info from a server</t>
-  </si>
-  <si>
-    <t>As a user, I would like to store homemade recipes</t>
-  </si>
-  <si>
-    <t>As a developer, I can test the integration of my app with my remote server</t>
-  </si>
-  <si>
-    <t>As a developer, I can test the infrastructure of my app</t>
-  </si>
-  <si>
-    <t>As a developer, I can test the behavior of my app</t>
   </si>
   <si>
     <t>As a user, I can access my camera from the application</t>
@@ -73,6 +52,27 @@
   </si>
   <si>
     <t>Actual remaining hours</t>
+  </si>
+  <si>
+    <t>As a user, I can see my pantry items in a card view</t>
+  </si>
+  <si>
+    <t>As a developer, I want secure communication between my local device and remote server</t>
+  </si>
+  <si>
+    <t>As a user, I can click on my pantry items to see the nutrition information of the item</t>
+  </si>
+  <si>
+    <t>As a user, I want to upload an image with my recipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a User, I want to be able to use my camera to scan the item's barcodes </t>
+  </si>
+  <si>
+    <t>As a user, I want my pantry items to have images</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,11 +118,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -134,6 +143,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -194,7 +209,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burndown Chart-Sprint 2</a:t>
+              <a:t>Burndown Chart-Sprint 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -245,7 +260,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -283,33 +298,30 @@
               </c:extLst>
               <c:f>Sheet1!$D$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5-Feb</c:v>
+                  <c:v>10-Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-Feb</c:v>
+                  <c:v>11-Mar</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-Feb</c:v>
+                  <c:v>12-Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-Feb</c:v>
+                  <c:v>13-Mar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15-Feb</c:v>
+                  <c:v>14-Mar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17-Feb</c:v>
+                  <c:v>15-Mar</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19-Feb</c:v>
+                  <c:v>16-Mar</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22-Feb</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24-Feb</c:v>
+                  <c:v>17-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -319,42 +331,39 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$10:$L$10</c15:sqref>
+                    <c15:sqref>Sheet1!$B$11:$L$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$10:$L$10</c:f>
+              <c:f>Sheet1!$C$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>166.5</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148</c:v>
+                  <c:v>107.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.5</c:v>
+                  <c:v>92.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>76.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.5</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>46.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.5</c:v>
+                  <c:v>30.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>15.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -372,7 +381,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>Sheet1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -410,33 +419,30 @@
               </c:extLst>
               <c:f>Sheet1!$D$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5-Feb</c:v>
+                  <c:v>10-Mar</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-Feb</c:v>
+                  <c:v>11-Mar</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-Feb</c:v>
+                  <c:v>12-Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-Feb</c:v>
+                  <c:v>13-Mar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15-Feb</c:v>
+                  <c:v>14-Mar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17-Feb</c:v>
+                  <c:v>15-Mar</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19-Feb</c:v>
+                  <c:v>16-Mar</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22-Feb</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24-Feb</c:v>
+                  <c:v>17-Mar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -446,43 +452,40 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$11:$L$11</c15:sqref>
+                    <c15:sqref>Sheet1!$B$12:$L$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$11:$L$11</c:f>
+              <c:f>Sheet1!$C$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>166.5</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,16 +1247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>554935</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>81997</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137491</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>124239</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>607943</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>125067</xdr:rowOff>
+      <xdr:rowOff>178077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1578,20 +1581,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2922F1B2-1DEE-473D-9993-6B9508723D1C}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:L11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="24.8984375" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1599,285 +1602,264 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44265</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44266</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44267</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44268</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44269</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44270</v>
+      </c>
+      <c r="J1" s="4">
+        <v>44271</v>
+      </c>
+      <c r="K1" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4">
-        <v>44232</v>
-      </c>
-      <c r="E1" s="4">
-        <v>44235</v>
-      </c>
-      <c r="F1" s="4">
-        <v>44237</v>
-      </c>
-      <c r="G1" s="4">
-        <v>44239</v>
-      </c>
-      <c r="H1" s="4">
-        <v>44242</v>
-      </c>
-      <c r="I1" s="4">
-        <v>44244</v>
-      </c>
-      <c r="J1" s="4">
-        <v>44246</v>
-      </c>
-      <c r="K1" s="4">
-        <v>44249</v>
-      </c>
-      <c r="L1" s="4">
-        <v>44251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>3</v>
-      </c>
       <c r="C2" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3">
-        <v>6</v>
-      </c>
       <c r="I4" s="3">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3">
         <v>5</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
+    </row>
+    <row r="5" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C6" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3">
-        <v>14</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="B7" s="3">
         <v>8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
       </c>
       <c r="D7" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1891,177 +1873,166 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3">
-        <f>SUM(C2:C9)</f>
-        <v>166.5</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-($C$10/9)</f>
-        <v>148</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" ref="E10:L10" si="0">D10-($C$10/9)</f>
-        <v>129.5</v>
-      </c>
-      <c r="F10" s="3">
+    </row>
+    <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3">
+        <f>SUM(C2:C10)</f>
+        <v>123</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-($C$11/8)</f>
+        <v>107.625</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11:K11" si="0">D11-($C$11/8)</f>
+        <v>92.25</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="G10" s="3">
+        <v>76.875</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>92.5</v>
-      </c>
-      <c r="H10" s="3">
+        <v>61.5</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="I10" s="3">
+        <v>46.125</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>55.5</v>
-      </c>
-      <c r="J10" s="3">
+        <v>30.75</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-      <c r="L10" s="3">
+        <v>15.375</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3">
+        <f>C11</f>
+        <v>123</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(D2:D10)</f>
+        <v>99</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUM(E2:E10)</f>
+        <v>85</v>
+      </c>
+      <c r="F12" s="3">
+        <f>SUM(F2:F10)</f>
+        <v>69</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SUM(G2:G10)</f>
+        <v>62</v>
+      </c>
+      <c r="H12" s="3">
+        <f>SUM(H2:H10)</f>
+        <v>56</v>
+      </c>
+      <c r="I12" s="3">
+        <f>SUM(I2:I10)</f>
+        <v>44</v>
+      </c>
+      <c r="J12" s="3">
+        <f>SUM(J2:J10)</f>
+        <v>36</v>
+      </c>
+      <c r="K12" s="3">
+        <f>SUM(K2:K10)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3">
-        <f>C10</f>
-        <v>166.5</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(D2:D9)</f>
-        <v>165</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" ref="E11:L11" si="1">SUM(E2:E9)</f>
-        <v>152</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>130.5</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13">
+        <f>SUM(B2:B8)</f>
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <f>SUMIF(K2:K8,"=0",B2:B8)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:B10"/>
+  <mergeCells count="3">
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assignment_files/burndown.xlsx
+++ b/assignment_files/burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\School\2020-2021-Senior\Winter\Capstone\pocket-chef\assignment_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA80F0C-4932-4D08-8DF6-146B9DE89F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE4C7-DEFD-42CD-A03A-66F8B208818D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A753B54A-E644-4AE6-B61F-AD9CD6AC82E0}"/>
   </bookViews>
@@ -143,10 +143,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -209,7 +209,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burndown Chart-Sprint 3</a:t>
+              <a:t>Burndown Chart-Sprint 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -340,28 +340,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.625</c:v>
+                  <c:v>122.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.25</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.5</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.125</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.75</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.375</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -461,10 +461,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>85</c:v>
@@ -479,13 +479,13 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2922F1B2-1DEE-473D-9993-6B9508723D1C}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1630,14 +1630,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3">
         <v>11</v>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
@@ -1735,14 +1735,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3">
         <v>9</v>
@@ -1795,13 +1795,13 @@
         <v>9</v>
       </c>
       <c r="I6" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
@@ -1830,13 +1830,13 @@
         <v>20</v>
       </c>
       <c r="I7" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J7" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -1876,16 +1876,36 @@
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
@@ -1901,41 +1921,41 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="3">
         <f>SUM(C2:C10)</f>
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D11" s="3">
         <f>C11-($C$11/8)</f>
-        <v>107.625</v>
+        <v>122.5</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ref="E11:K11" si="0">D11-($C$11/8)</f>
-        <v>92.25</v>
+        <v>105</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>76.875</v>
+        <v>87.5</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>61.5</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>46.125</v>
+        <v>52.5</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>30.75</v>
+        <v>35</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>15.375</v>
+        <v>17.5</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
@@ -1943,45 +1963,45 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3">
         <f>C11</f>
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(D2:D10)</f>
-        <v>99</v>
+        <f t="shared" ref="D12:K12" si="1">SUM(D2:D10)</f>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
-        <f>SUM(E2:E10)</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="F12" s="3">
-        <f>SUM(F2:F10)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="G12" s="3">
-        <f>SUM(G2:G10)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="H12" s="3">
-        <f>SUM(H2:H10)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="I12" s="3">
-        <f>SUM(I2:I10)</f>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="J12" s="3">
-        <f>SUM(J2:J10)</f>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="K12" s="3">
-        <f>SUM(K2:K10)</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1991,11 +2011,11 @@
       <c r="B13" s="8"/>
       <c r="C13">
         <f>SUM(B2:B8)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <f>SUMIF(K2:K8,"=0",B2:B8)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
